--- a/Data/Layout Types/Sidra_layouts.xlsx
+++ b/Data/Layout Types/Sidra_layouts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/levan/Documents/MegaValuationer/Data/Layout Types/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D1416B2-F6A6-0D47-8835-DDCD8492F365}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{830AD007-1CF0-7043-958D-034FBAB2C63A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="18360" xr2:uid="{D294E7EC-6048-654A-A94F-4925F190E5C1}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="18360" activeTab="1" xr2:uid="{D294E7EC-6048-654A-A94F-4925F190E5C1}"/>
   </bookViews>
   <sheets>
     <sheet name="Types" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Types!$A$1:$G$1244</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7526" uniqueCount="1263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7526" uniqueCount="1266">
   <si>
     <t>All Developments</t>
   </si>
@@ -3829,6 +3829,15 @@
   </si>
   <si>
     <t>DE Sidra 3-V-339</t>
+  </si>
+  <si>
+    <t>Development</t>
+  </si>
+  <si>
+    <t>Community</t>
+  </si>
+  <si>
+    <t>Subcommunity</t>
   </si>
 </sst>
 </file>
@@ -4224,7 +4233,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99C5FD24-334C-D640-9D0C-DF562596D6BE}">
   <dimension ref="A1:G1244"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
@@ -15055,7 +15064,7 @@
         <v>17</v>
       </c>
       <c r="G451" t="str">
-        <f t="shared" ref="E451:G484" si="7">"Type E" &amp; E451</f>
+        <f t="shared" ref="G451:G484" si="7">"Type E" &amp; E451</f>
         <v>Type EType E1</v>
       </c>
     </row>
@@ -15871,7 +15880,7 @@
         <v>17</v>
       </c>
       <c r="G485" t="str">
-        <f t="shared" ref="E485:G548" si="8">"Type E" &amp; E485</f>
+        <f t="shared" ref="G485:G548" si="8">"Type E" &amp; E485</f>
         <v>Type EType E1</v>
       </c>
     </row>
@@ -17407,7 +17416,7 @@
         <v>17</v>
       </c>
       <c r="G549" t="str">
-        <f t="shared" ref="E549:G612" si="9">"Type E" &amp; E549</f>
+        <f t="shared" ref="G549:G612" si="9">"Type E" &amp; E549</f>
         <v>Type EType E3</v>
       </c>
     </row>
@@ -18943,7 +18952,7 @@
         <v>17</v>
       </c>
       <c r="G613" t="str">
-        <f t="shared" ref="E613:G676" si="10">"Type E" &amp; E613</f>
+        <f t="shared" ref="G613:G676" si="10">"Type E" &amp; E613</f>
         <v>Type EType E3</v>
       </c>
     </row>
@@ -20479,7 +20488,7 @@
         <v>17</v>
       </c>
       <c r="G677" t="str">
-        <f t="shared" ref="E677:G740" si="11">"Type E" &amp; E677</f>
+        <f t="shared" ref="G677:G740" si="11">"Type E" &amp; E677</f>
         <v>Type EType E3</v>
       </c>
     </row>
@@ -22015,7 +22024,7 @@
         <v>17</v>
       </c>
       <c r="G741" t="str">
-        <f t="shared" ref="E741:G804" si="12">"Type E" &amp; E741</f>
+        <f t="shared" ref="G741:G804" si="12">"Type E" &amp; E741</f>
         <v>Type EType E3</v>
       </c>
     </row>
@@ -23551,7 +23560,7 @@
         <v>17</v>
       </c>
       <c r="G805" t="str">
-        <f t="shared" ref="E805:G868" si="13">"Type E" &amp; E805</f>
+        <f t="shared" ref="G805:G868" si="13">"Type E" &amp; E805</f>
         <v>Type EType E3</v>
       </c>
     </row>
@@ -25087,7 +25096,7 @@
         <v>17</v>
       </c>
       <c r="G869" t="str">
-        <f t="shared" ref="E869:G905" si="14">"Type E" &amp; E869</f>
+        <f t="shared" ref="G869:G905" si="14">"Type E" &amp; E869</f>
         <v>Type EType E1</v>
       </c>
     </row>
@@ -25975,7 +25984,7 @@
         <v>17</v>
       </c>
       <c r="G906" t="str">
-        <f t="shared" ref="E906:G969" si="15">"Type E" &amp; E906</f>
+        <f t="shared" ref="G906:G969" si="15">"Type E" &amp; E906</f>
         <v>Type EType E3</v>
       </c>
     </row>
@@ -27511,7 +27520,7 @@
         <v>17</v>
       </c>
       <c r="G970" t="str">
-        <f t="shared" ref="E970:G1033" si="16">"Type E" &amp; E970</f>
+        <f t="shared" ref="G970:G1033" si="16">"Type E" &amp; E970</f>
         <v>Type EType E1</v>
       </c>
     </row>
@@ -29047,7 +29056,7 @@
         <v>17</v>
       </c>
       <c r="G1034" t="str">
-        <f t="shared" ref="E1034:G1097" si="17">"Type E" &amp; E1034</f>
+        <f t="shared" ref="G1034:G1097" si="17">"Type E" &amp; E1034</f>
         <v>Type EType E1</v>
       </c>
     </row>
@@ -30583,7 +30592,7 @@
         <v>17</v>
       </c>
       <c r="G1098" t="str">
-        <f t="shared" ref="E1098:G1161" si="18">"Type E" &amp; E1098</f>
+        <f t="shared" ref="G1098:G1161" si="18">"Type E" &amp; E1098</f>
         <v>Type EType E1</v>
       </c>
     </row>
@@ -32119,7 +32128,7 @@
         <v>17</v>
       </c>
       <c r="G1162" t="str">
-        <f t="shared" ref="E1162:G1225" si="19">"Type E" &amp; E1162</f>
+        <f t="shared" ref="G1162:G1225" si="19">"Type E" &amp; E1162</f>
         <v>Type EType E5</v>
       </c>
     </row>
@@ -33655,7 +33664,7 @@
         <v>17</v>
       </c>
       <c r="G1226" t="str">
-        <f t="shared" ref="E1226:G1244" si="20">"Type E" &amp; E1226</f>
+        <f t="shared" ref="G1226:G1244" si="20">"Type E" &amp; E1226</f>
         <v>Type EType E3</v>
       </c>
     </row>
@@ -34100,8 +34109,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3CA5582-6113-3840-93DA-5AF197BA44FB}">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -34116,13 +34125,13 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>1263</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>1264</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>1265</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
